--- a/teaching/traditional_assets/database/data/greenland/greenland_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/greenland/greenland_banks_regional.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0187</v>
+        <v>0.0416</v>
       </c>
       <c r="E2">
-        <v>0.00371</v>
+        <v>0.0883</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -609,85 +609,82 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.9</v>
+        <v>16.2</v>
       </c>
       <c r="L2">
-        <v>0.3136842105263158</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>7.884</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0535234215885947</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5291275167785235</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>7.884</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0535234215885947</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.5291275167785235</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>27.7</v>
+        <v>29.6</v>
       </c>
       <c r="V2">
-        <v>0.1880515953835709</v>
+        <v>0.1696275071633238</v>
       </c>
       <c r="W2">
-        <v>0.09719504240052185</v>
+        <v>0.1062992125984252</v>
       </c>
       <c r="X2">
-        <v>0.04757296697465579</v>
+        <v>0.04136624714725483</v>
       </c>
       <c r="Y2">
-        <v>0.04962207542586605</v>
+        <v>0.06493296545117036</v>
       </c>
       <c r="Z2">
-        <v>0.3680743897714064</v>
+        <v>0.3805496828752643</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04714682364665859</v>
+        <v>0.04121983102901283</v>
       </c>
       <c r="AC2">
-        <v>-0.04714682364665859</v>
+        <v>-0.04121983102901283</v>
       </c>
       <c r="AD2">
-        <v>3.01</v>
+        <v>1.49</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>3.01</v>
+        <v>1.49</v>
       </c>
       <c r="AG2">
-        <v>-24.69</v>
+        <v>-28.11</v>
       </c>
       <c r="AH2">
-        <v>0.0200252810857561</v>
+        <v>0.00846639013580317</v>
       </c>
       <c r="AI2">
-        <v>0.01936812302940609</v>
+        <v>0.008151430603424693</v>
       </c>
       <c r="AJ2">
-        <v>-0.2013701981893809</v>
+        <v>-0.1920213129312112</v>
       </c>
       <c r="AK2">
-        <v>-0.1933286351891003</v>
+        <v>-0.1834976173379464</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -713,10 +710,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0187</v>
+        <v>0.0416</v>
       </c>
       <c r="E3">
-        <v>0.00371</v>
+        <v>0.0883</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,85 +728,82 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.9</v>
+        <v>16.2</v>
       </c>
       <c r="L3">
-        <v>0.3136842105263158</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>7.884</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.0535234215885947</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.5291275167785235</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>7.884</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.0535234215885947</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.5291275167785235</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>27.7</v>
+        <v>29.6</v>
       </c>
       <c r="V3">
-        <v>0.1880515953835709</v>
+        <v>0.1696275071633238</v>
       </c>
       <c r="W3">
-        <v>0.09719504240052185</v>
+        <v>0.1062992125984252</v>
       </c>
       <c r="X3">
-        <v>0.04757296697465579</v>
+        <v>0.04136624714725483</v>
       </c>
       <c r="Y3">
-        <v>0.04962207542586605</v>
+        <v>0.06493296545117036</v>
       </c>
       <c r="Z3">
-        <v>0.3680743897714064</v>
+        <v>0.3805496828752643</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04714682364665859</v>
+        <v>0.04121983102901283</v>
       </c>
       <c r="AC3">
-        <v>-0.04714682364665859</v>
+        <v>-0.04121983102901283</v>
       </c>
       <c r="AD3">
-        <v>3.01</v>
+        <v>1.49</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>3.01</v>
+        <v>1.49</v>
       </c>
       <c r="AG3">
-        <v>-24.69</v>
+        <v>-28.11</v>
       </c>
       <c r="AH3">
-        <v>0.0200252810857561</v>
+        <v>0.00846639013580317</v>
       </c>
       <c r="AI3">
-        <v>0.01936812302940609</v>
+        <v>0.008151430603424693</v>
       </c>
       <c r="AJ3">
-        <v>-0.2013701981893809</v>
+        <v>-0.1920213129312112</v>
       </c>
       <c r="AK3">
-        <v>-0.1933286351891003</v>
+        <v>-0.1834976173379464</v>
       </c>
       <c r="AL3">
         <v>0</v>
